--- a/src/test/resources/test.xlsx
+++ b/src/test/resources/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="984" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>文字列</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>テスト</t>
+  </si>
+  <si>
+    <t>0100</t>
   </si>
   <si>
     <t>test</t>
@@ -44,15 +47,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD"/>
+    <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
   <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Hiragino Kaku Gothic ProN"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -73,6 +78,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -117,7 +123,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -126,7 +132,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -147,15 +157,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H27" activeCellId="0" sqref="H27"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.77489177489177"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.85714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -196,6 +206,16 @@
       <c r="B4" s="0" t="n">
         <f aca="false">B2+B3</f>
         <v>5.4</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -222,7 +242,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.77489177489177"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.85714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -254,7 +274,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -269,13 +289,13 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H37" activeCellId="0" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.77489177489177"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.85714285714286"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -283,7 +303,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -291,13 +311,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/src/test/resources/test.xlsx
+++ b/src/test/resources/test.xlsx
@@ -123,7 +123,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -133,6 +133,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -157,15 +161,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.85714285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.94372294372294"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -209,12 +213,17 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="3" t="n">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>5</v>
       </c>
     </row>
@@ -242,7 +251,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.85714285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.94372294372294"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -295,7 +304,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.85714285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.94372294372294"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/test/resources/test.xlsx
+++ b/src/test/resources/test.xlsx
@@ -164,7 +164,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/src/test/resources/test.xlsx
+++ b/src/test/resources/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
@@ -52,7 +52,7 @@
     <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Hiragino Kaku Gothic ProN"/>
@@ -79,6 +79,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="HGP明朝E"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -123,7 +129,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -141,6 +147,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -161,15 +171,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.94372294372294"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.4545454545455"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.94372294372294"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -225,6 +236,11 @@
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="n">
+        <v>13802425287</v>
       </c>
     </row>
   </sheetData>
